--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.2522</v>
+        <v>-12.2155</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.644700000000005</v>
+        <v>5.647600000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.36239999999999</v>
+        <v>16.3695</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.47330000000002</v>
+        <v>17.53970000000001</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.325700000000001</v>
+        <v>5.367600000000003</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.980700000000001</v>
+        <v>6.489500000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.5815</v>
+        <v>-11.4815</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.513</v>
+        <v>9.3385</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.190799999999999</v>
+        <v>9.078000000000003</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -842,13 +842,13 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.79099999999999</v>
+        <v>-12.76449999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.3474</v>
+        <v>16.4641</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.8839</v>
+        <v>5.665199999999998</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.87500000000001</v>
+        <v>-11.619</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>16.8571</v>
+        <v>16.92660000000001</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.576200000000005</v>
+        <v>6.346000000000006</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.4146</v>
+        <v>-12.46039999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.959900000000002</v>
+        <v>5.095600000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.30879999999999</v>
+        <v>-13.307</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.401</v>
+        <v>-13.40319999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.62790000000001</v>
+        <v>-12.43140000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.144799999999996</v>
+        <v>8.976699999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.72089999999999</v>
+        <v>16.63389999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.52639999999999</v>
+        <v>-12.2954</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.34189999999999</v>
+        <v>-11.41969999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.3735</v>
+        <v>16.2284</v>
       </c>
     </row>
     <row r="51">
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.31139999999999</v>
+        <v>-11.35999999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.76699999999999</v>
+        <v>-11.132</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.690899999999998</v>
+        <v>5.389399999999998</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.45220000000001</v>
+        <v>16.51790000000001</v>
       </c>
     </row>
     <row r="54">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.78619999999999</v>
+        <v>-13.8202</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,13 +1386,13 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.0847</v>
+        <v>-13.44959999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.24760000000001</v>
+        <v>16.25630000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.094199999999995</v>
+        <v>5.232599999999995</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.46679999999998</v>
+        <v>-13.43099999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.67750000000001</v>
+        <v>16.7435</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.22110000000001</v>
+        <v>16.28920000000002</v>
       </c>
     </row>
     <row r="59">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.8948</v>
+        <v>4.5847</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1454,7 +1454,7 @@
         <v>3.07</v>
       </c>
       <c r="C60" t="n">
-        <v>-14.30319999999999</v>
+        <v>-13.83229999999999</v>
       </c>
       <c r="D60" t="n">
         <v>-9.630000000000001</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.64340000000001</v>
+        <v>16.4659</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.50190000000002</v>
+        <v>17.44870000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.43540000000002</v>
+        <v>17.5558</v>
       </c>
     </row>
     <row r="65">
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.285300000000002</v>
+        <v>6.021400000000001</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.340999999999995</v>
+        <v>5.348299999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.43960000000001</v>
+        <v>17.44710000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>16.79580000000001</v>
+        <v>16.91090000000001</v>
       </c>
     </row>
     <row r="73">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.96950000000001</v>
+        <v>-12.6986</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.1606</v>
+        <v>-12.542</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.183100000000005</v>
+        <v>9.230400000000005</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.351399999999996</v>
+        <v>5.2627</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.54620000000001</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="87">
@@ -1947,13 +1947,13 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.33830000000001</v>
+        <v>-10.3672</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.55480000000002</v>
+        <v>17.61180000000003</v>
       </c>
     </row>
     <row r="90">
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.8562</v>
+        <v>-12.5246</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.220600000000001</v>
+        <v>5.084700000000002</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.5114</v>
+        <v>-10.5774</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.709000000000001</v>
+        <v>5.763300000000002</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.01710000000001</v>
+        <v>15.8914</v>
       </c>
     </row>
     <row r="99">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.5324</v>
+        <v>5.255399999999998</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.43520000000001</v>
+        <v>16.49300000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.74589999999998</v>
+        <v>16.57359999999998</v>
       </c>
     </row>
   </sheetData>
